--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_8_10.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_8_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1008875.830553032</v>
+        <v>-1011149.850680469</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>14.04590347118614</v>
       </c>
       <c r="H2" t="n">
-        <v>161.2584665915755</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>162.0217950910657</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>70.91951642794446</v>
+        <v>70.91951642794419</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>180.3799638097596</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>21.90861290373757</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2451061843206</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>53.12723690409985</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -738,7 +738,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>93.81277038430599</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -753,10 +753,10 @@
         <v>136.6710516650733</v>
       </c>
       <c r="H3" t="n">
-        <v>105.7408432413276</v>
+        <v>57.74251204656058</v>
       </c>
       <c r="I3" t="n">
-        <v>66.24376372694836</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,19 +783,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>58.40598506653473</v>
+        <v>58.40598506653459</v>
       </c>
       <c r="S3" t="n">
-        <v>159.192419416944</v>
+        <v>159.1924194169439</v>
       </c>
       <c r="T3" t="n">
-        <v>197.4542208317152</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.8971409297816</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -817,16 +817,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>53.50046549375615</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,16 +865,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>214.1915812011575</v>
       </c>
       <c r="T4" t="n">
-        <v>58.53807714831095</v>
+        <v>104.8111498852115</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>55.65242777696724</v>
+        <v>196.1190265860409</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1060,16 +1060,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,19 +1102,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>153.7066665474637</v>
       </c>
       <c r="W7" t="n">
-        <v>43.8374309337276</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>161.0494155854209</v>
+        <v>63.16179373829494</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1181,16 +1181,16 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>9.27559683049698</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,16 +1333,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>13.72101765531107</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534548</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>25.53923626892167</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>166.4311843675419</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1625,7 +1625,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396218</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,10 +1813,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>13.60281687774081</v>
+        <v>219.6365075870632</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1859,7 +1859,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873208</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -1895,7 +1895,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396218</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C19" t="n">
-        <v>81.85784919477537</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,16 +2011,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2059,7 +2059,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2138,7 +2138,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701364</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2236,19 +2236,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>65.90494505528237</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>57.68750238080894</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2299,13 +2299,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>74.75769145492403</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -2573,7 +2573,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -2767,13 +2767,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>104.0438938896184</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>181.4487096095768</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2810,7 +2810,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>187.4330611973841</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>194.9437214015086</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3047,7 +3047,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3205,7 +3205,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S34" t="n">
-        <v>142.7938887128497</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T34" t="n">
         <v>172.5738126575766</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T35" t="n">
         <v>156.9428335210276</v>
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3442,7 +3442,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S37" t="n">
         <v>142.7938887128493</v>
@@ -3506,16 +3506,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D38" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E38" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F38" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G38" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H38" t="n">
         <v>247.6326277687279</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.21262516958325</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T38" t="n">
         <v>156.9428335210276</v>
@@ -3563,13 +3563,13 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W38" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X38" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y38" t="n">
-        <v>339.2628020374609</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="39">
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3661,25 +3661,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C40" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D40" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G40" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572821</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124623</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S40" t="n">
         <v>142.7938887128493</v>
@@ -3743,16 +3743,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D41" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E41" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F41" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G41" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H41" t="n">
         <v>247.6326277687279</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T41" t="n">
         <v>156.9428335210276</v>
@@ -3800,13 +3800,13 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W41" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X41" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y41" t="n">
-        <v>339.262802037461</v>
+        <v>339.2628020374609</v>
       </c>
     </row>
     <row r="42">
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3898,25 +3898,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C43" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D43" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G43" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128493</v>
@@ -3980,16 +3980,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D44" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E44" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F44" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G44" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H44" t="n">
         <v>247.6326277687279</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T44" t="n">
         <v>156.9428335210276</v>
@@ -4037,10 +4037,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W44" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X44" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y44" t="n">
         <v>339.262802037461</v>
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4135,25 +4135,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D46" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>621.7656669923456</v>
+        <v>1338.755050520545</v>
       </c>
       <c r="C2" t="n">
-        <v>621.7656669923456</v>
+        <v>969.7925335801333</v>
       </c>
       <c r="D2" t="n">
-        <v>621.7656669923456</v>
+        <v>611.5268349733827</v>
       </c>
       <c r="E2" t="n">
-        <v>621.7656669923456</v>
+        <v>225.7385823751385</v>
       </c>
       <c r="F2" t="n">
-        <v>210.779762202738</v>
+        <v>225.7385823751385</v>
       </c>
       <c r="G2" t="n">
-        <v>210.779762202738</v>
+        <v>211.5508010911121</v>
       </c>
       <c r="H2" t="n">
-        <v>47.89242221124764</v>
+        <v>211.5508010911121</v>
       </c>
       <c r="I2" t="n">
-        <v>47.89242221124764</v>
+        <v>47.89242221124773</v>
       </c>
       <c r="J2" t="n">
-        <v>141.6681220034134</v>
+        <v>141.6681220034136</v>
       </c>
       <c r="K2" t="n">
-        <v>402.9583913971213</v>
+        <v>402.9583913971221</v>
       </c>
       <c r="L2" t="n">
-        <v>779.3887029883416</v>
+        <v>779.3887029883431</v>
       </c>
       <c r="M2" t="n">
-        <v>1214.846500462593</v>
+        <v>1214.846500462595</v>
       </c>
       <c r="N2" t="n">
-        <v>1642.718462811276</v>
+        <v>1642.718462811278</v>
       </c>
       <c r="O2" t="n">
-        <v>2001.558186006095</v>
+        <v>2001.558186006099</v>
       </c>
       <c r="P2" t="n">
-        <v>2270.145204794929</v>
+        <v>2270.145204794933</v>
       </c>
       <c r="Q2" t="n">
-        <v>2394.621110562382</v>
+        <v>2394.621110562387</v>
       </c>
       <c r="R2" t="n">
-        <v>2322.98523538264</v>
+        <v>2322.985235382645</v>
       </c>
       <c r="S2" t="n">
-        <v>2322.98523538264</v>
+        <v>2140.783251736423</v>
       </c>
       <c r="T2" t="n">
-        <v>2322.98523538264</v>
+        <v>2118.653339712446</v>
       </c>
       <c r="U2" t="n">
-        <v>2069.202299842922</v>
+        <v>2118.653339712446</v>
       </c>
       <c r="V2" t="n">
-        <v>1738.139412499351</v>
+        <v>2064.989464051739</v>
       </c>
       <c r="W2" t="n">
-        <v>1385.370757229237</v>
+        <v>1712.220808781625</v>
       </c>
       <c r="X2" t="n">
-        <v>1011.904998968157</v>
+        <v>1338.755050520545</v>
       </c>
       <c r="Y2" t="n">
-        <v>621.7656669923456</v>
+        <v>1338.755050520545</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>909.1326115355696</v>
+        <v>873.429211214655</v>
       </c>
       <c r="C3" t="n">
-        <v>814.372237410008</v>
+        <v>698.976181933528</v>
       </c>
       <c r="D3" t="n">
-        <v>665.4378277487567</v>
+        <v>550.0417722722767</v>
       </c>
       <c r="E3" t="n">
-        <v>506.2003727433013</v>
+        <v>390.8043172668212</v>
       </c>
       <c r="F3" t="n">
-        <v>359.6658147701863</v>
+        <v>244.2697592937062</v>
       </c>
       <c r="G3" t="n">
-        <v>221.6142474317284</v>
+        <v>106.2181919552483</v>
       </c>
       <c r="H3" t="n">
-        <v>114.8053148647308</v>
+        <v>47.89242221124773</v>
       </c>
       <c r="I3" t="n">
-        <v>47.89242221124764</v>
+        <v>47.89242221124773</v>
       </c>
       <c r="J3" t="n">
-        <v>110.0512068966009</v>
+        <v>110.0512068966012</v>
       </c>
       <c r="K3" t="n">
-        <v>142.1232764428678</v>
+        <v>342.9113135442398</v>
       </c>
       <c r="L3" t="n">
-        <v>516.6368228394535</v>
+        <v>717.4248599408261</v>
       </c>
       <c r="M3" t="n">
-        <v>1005.655688461797</v>
+        <v>1206.44372556317</v>
       </c>
       <c r="N3" t="n">
-        <v>1523.324441723572</v>
+        <v>1523.324441723576</v>
       </c>
       <c r="O3" t="n">
-        <v>1930.474537907025</v>
+        <v>1930.474537907029</v>
       </c>
       <c r="P3" t="n">
-        <v>2240.245317403384</v>
+        <v>2240.245317403389</v>
       </c>
       <c r="Q3" t="n">
-        <v>2394.621110562382</v>
+        <v>2394.621110562387</v>
       </c>
       <c r="R3" t="n">
-        <v>2335.625166050731</v>
+        <v>2335.625166050736</v>
       </c>
       <c r="S3" t="n">
-        <v>2174.824742397252</v>
+        <v>2174.824742397257</v>
       </c>
       <c r="T3" t="n">
-        <v>1975.376034486429</v>
+        <v>2174.824742397257</v>
       </c>
       <c r="U3" t="n">
-        <v>1747.197104254326</v>
+        <v>1946.645812165154</v>
       </c>
       <c r="V3" t="n">
-        <v>1747.197104254326</v>
+        <v>1711.493703933411</v>
       </c>
       <c r="W3" t="n">
-        <v>1492.959747526124</v>
+        <v>1457.25634720521</v>
       </c>
       <c r="X3" t="n">
-        <v>1285.108247320592</v>
+        <v>1249.404846999677</v>
       </c>
       <c r="Y3" t="n">
-        <v>1077.347948555638</v>
+        <v>1041.644548234723</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>565.6725204555753</v>
+        <v>47.89242221124773</v>
       </c>
       <c r="C4" t="n">
-        <v>396.7363375276684</v>
+        <v>47.89242221124773</v>
       </c>
       <c r="D4" t="n">
-        <v>396.7363375276684</v>
+        <v>47.89242221124773</v>
       </c>
       <c r="E4" t="n">
-        <v>248.8232439452753</v>
+        <v>47.89242221124773</v>
       </c>
       <c r="F4" t="n">
-        <v>101.933296447365</v>
+        <v>47.89242221124773</v>
       </c>
       <c r="G4" t="n">
-        <v>101.933296447365</v>
+        <v>47.89242221124773</v>
       </c>
       <c r="H4" t="n">
-        <v>101.933296447365</v>
+        <v>47.89242221124773</v>
       </c>
       <c r="I4" t="n">
-        <v>101.933296447365</v>
+        <v>47.89242221124773</v>
       </c>
       <c r="J4" t="n">
-        <v>47.89242221124764</v>
+        <v>47.89242221124773</v>
       </c>
       <c r="K4" t="n">
-        <v>90.69073642000083</v>
+        <v>90.69073642000116</v>
       </c>
       <c r="L4" t="n">
-        <v>200.984278266308</v>
+        <v>200.9842782663086</v>
       </c>
       <c r="M4" t="n">
-        <v>327.6624769420741</v>
+        <v>327.6624769420751</v>
       </c>
       <c r="N4" t="n">
-        <v>456.7631676148796</v>
+        <v>456.7631676148809</v>
       </c>
       <c r="O4" t="n">
-        <v>559.9922554890147</v>
+        <v>559.9922554890163</v>
       </c>
       <c r="P4" t="n">
-        <v>624.801891312455</v>
+        <v>624.8018913124569</v>
       </c>
       <c r="Q4" t="n">
-        <v>624.801891312455</v>
+        <v>624.8018913124569</v>
       </c>
       <c r="R4" t="n">
-        <v>624.801891312455</v>
+        <v>624.8018913124569</v>
       </c>
       <c r="S4" t="n">
-        <v>624.801891312455</v>
+        <v>408.4467587860352</v>
       </c>
       <c r="T4" t="n">
-        <v>565.6725204555753</v>
+        <v>302.5769104171346</v>
       </c>
       <c r="U4" t="n">
-        <v>565.6725204555753</v>
+        <v>302.5769104171346</v>
       </c>
       <c r="V4" t="n">
-        <v>565.6725204555753</v>
+        <v>47.89242221124773</v>
       </c>
       <c r="W4" t="n">
-        <v>565.6725204555753</v>
+        <v>47.89242221124773</v>
       </c>
       <c r="X4" t="n">
-        <v>565.6725204555753</v>
+        <v>47.89242221124773</v>
       </c>
       <c r="Y4" t="n">
-        <v>565.6725204555753</v>
+        <v>47.89242221124773</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1370.766673031379</v>
+        <v>1483.703156598057</v>
       </c>
       <c r="C5" t="n">
-        <v>1001.804156090968</v>
+        <v>1483.703156598057</v>
       </c>
       <c r="D5" t="n">
-        <v>1001.804156090968</v>
+        <v>1125.437457991306</v>
       </c>
       <c r="E5" t="n">
-        <v>1001.804156090968</v>
+        <v>739.6492053930622</v>
       </c>
       <c r="F5" t="n">
-        <v>590.8182513013601</v>
+        <v>732.7037046438587</v>
       </c>
       <c r="G5" t="n">
         <v>534.603677789272</v>
@@ -4565,19 +4565,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W5" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X5" t="n">
-        <v>2147.505845071313</v>
+        <v>1873.842488573869</v>
       </c>
       <c r="Y5" t="n">
-        <v>1757.366513095501</v>
+        <v>1483.703156598057</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4659,7 +4659,7 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4668,19 +4668,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>201.8560754027576</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="C7" t="n">
-        <v>201.8560754027576</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4750,25 +4750,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T7" t="n">
-        <v>500.820796875036</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U7" t="n">
-        <v>500.820796875036</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V7" t="n">
-        <v>246.1363086691491</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="W7" t="n">
-        <v>201.8560754027576</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="X7" t="n">
-        <v>201.8560754027576</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="Y7" t="n">
-        <v>201.8560754027576</v>
+        <v>358.5813018857447</v>
       </c>
     </row>
     <row r="8">
@@ -4778,10 +4778,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1584.823100673951</v>
+        <v>1485.946714969783</v>
       </c>
       <c r="C8" t="n">
-        <v>1584.823100673951</v>
+        <v>1485.946714969783</v>
       </c>
       <c r="D8" t="n">
         <v>1422.14692331494</v>
@@ -4805,10 +4805,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205145</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W8" t="n">
-        <v>1958.288858935031</v>
+        <v>1859.412473230863</v>
       </c>
       <c r="X8" t="n">
-        <v>1584.823100673951</v>
+        <v>1485.946714969783</v>
       </c>
       <c r="Y8" t="n">
-        <v>1584.823100673951</v>
+        <v>1485.946714969783</v>
       </c>
     </row>
     <row r="9">
@@ -4881,10 +4881,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L9" t="n">
         <v>670.8219208598706</v>
@@ -4905,7 +4905,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073963</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>108.9687959810048</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C10" t="n">
-        <v>108.9687959810048</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D10" t="n">
-        <v>108.9687959810048</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>108.9687959810048</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>108.9687959810048</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>108.9687959810048</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>108.9687959810048</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942404</v>
+        <v>714.2693704131909</v>
       </c>
       <c r="S10" t="n">
-        <v>336.2769833124031</v>
+        <v>714.2693704131909</v>
       </c>
       <c r="T10" t="n">
-        <v>108.9687959810048</v>
+        <v>714.2693704131909</v>
       </c>
       <c r="U10" t="n">
-        <v>108.9687959810048</v>
+        <v>714.2693704131909</v>
       </c>
       <c r="V10" t="n">
-        <v>108.9687959810048</v>
+        <v>714.2693704131909</v>
       </c>
       <c r="W10" t="n">
-        <v>108.9687959810048</v>
+        <v>424.8522003762303</v>
       </c>
       <c r="X10" t="n">
-        <v>108.9687959810048</v>
+        <v>424.8522003762303</v>
       </c>
       <c r="Y10" t="n">
-        <v>108.9687959810048</v>
+        <v>204.0596212327002</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690177</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749766</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551633</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
         <v>435.1415336001585</v>
@@ -5036,55 +5036,55 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074199</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K11" t="n">
-        <v>806.161341878639</v>
+        <v>1014.851249206416</v>
       </c>
       <c r="L11" t="n">
-        <v>1670.680157531994</v>
+        <v>1465.885462454824</v>
       </c>
       <c r="M11" t="n">
-        <v>2649.230460361822</v>
+        <v>1999.417367126749</v>
       </c>
       <c r="N11" t="n">
-        <v>3196.009277420605</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O11" t="n">
-        <v>4075.973927750059</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107238</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.03465586292</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604876</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261305</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991191</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730111</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754299</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5094,37 +5094,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K12" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5133,25 +5133,25 @@
         <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5160,10 +5160,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5173,34 +5173,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>438.2075193111406</v>
+        <v>1023.336921276364</v>
       </c>
       <c r="C13" t="n">
-        <v>269.2713363832337</v>
+        <v>854.4007383484569</v>
       </c>
       <c r="D13" t="n">
-        <v>269.2713363832337</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="E13" t="n">
-        <v>121.3582428008406</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F13" t="n">
-        <v>121.3582428008406</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G13" t="n">
-        <v>121.3582428008406</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L13" t="n">
         <v>661.2306482927024</v>
@@ -5212,37 +5212,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T13" t="n">
-        <v>1453.060509258584</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="U13" t="n">
-        <v>1163.957642384228</v>
+        <v>1788.231158662742</v>
       </c>
       <c r="V13" t="n">
-        <v>909.2731541783409</v>
+        <v>1533.546670456855</v>
       </c>
       <c r="W13" t="n">
-        <v>619.8559841413803</v>
+        <v>1244.129500419894</v>
       </c>
       <c r="X13" t="n">
-        <v>619.8559841413803</v>
+        <v>1244.129500419894</v>
       </c>
       <c r="Y13" t="n">
-        <v>619.8559841413803</v>
+        <v>1023.336921276364</v>
       </c>
     </row>
     <row r="14">
@@ -5273,49 +5273,49 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074199</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K14" t="n">
-        <v>685.1208104866394</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L14" t="n">
-        <v>1549.639626139994</v>
+        <v>1898.858917622689</v>
       </c>
       <c r="M14" t="n">
-        <v>2528.189928969823</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N14" t="n">
-        <v>3507.942201196469</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O14" t="n">
-        <v>4010.914672075806</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P14" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188667</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
         <v>3150.95552873011</v>
@@ -5331,37 +5331,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C15" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H15" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390123</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5373,22 +5373,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5397,10 +5397,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="16">
@@ -5410,34 +5410,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>536.5812623108401</v>
+        <v>560.2704579839216</v>
       </c>
       <c r="C16" t="n">
-        <v>536.5812623108401</v>
+        <v>560.2704579839216</v>
       </c>
       <c r="D16" t="n">
-        <v>536.5812623108401</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="E16" t="n">
-        <v>388.668168728447</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F16" t="n">
-        <v>241.7782212305366</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G16" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L16" t="n">
         <v>661.2306482927024</v>
@@ -5449,37 +5449,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S16" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T16" t="n">
-        <v>1542.890966501056</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="U16" t="n">
-        <v>1253.788099626699</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V16" t="n">
-        <v>999.1036114208126</v>
+        <v>1412.55611102446</v>
       </c>
       <c r="W16" t="n">
-        <v>985.3633923523876</v>
+        <v>1190.701052855709</v>
       </c>
       <c r="X16" t="n">
-        <v>757.3738414543702</v>
+        <v>962.7115019576914</v>
       </c>
       <c r="Y16" t="n">
-        <v>536.5812623108401</v>
+        <v>741.9189228141613</v>
       </c>
     </row>
     <row r="17">
@@ -5492,67 +5492,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074199</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>939.1634975427194</v>
+        <v>1002.806306216376</v>
       </c>
       <c r="L17" t="n">
-        <v>1803.682313196074</v>
+        <v>1453.840519464784</v>
       </c>
       <c r="M17" t="n">
-        <v>2337.214217867999</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N17" t="n">
-        <v>3316.966490094645</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O17" t="n">
-        <v>4075.973927750059</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107238</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.03465586292</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
         <v>3150.95552873011</v>
@@ -5568,34 +5568,34 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L18" t="n">
         <v>794.2006632320242</v>
@@ -5610,22 +5610,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T18" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5634,10 +5634,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>736.3813786917215</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C19" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D19" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
         <v>140.68366689533</v>
@@ -5707,16 +5707,16 @@
         <v>1253.788099626699</v>
       </c>
       <c r="V19" t="n">
-        <v>1253.788099626699</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W19" t="n">
-        <v>964.3709295897388</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X19" t="n">
-        <v>736.3813786917215</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y19" t="n">
-        <v>736.3813786917215</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="20">
@@ -5747,49 +5747,49 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074199</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>685.1208104866394</v>
+        <v>818.2062848686776</v>
       </c>
       <c r="L20" t="n">
-        <v>1549.639626139994</v>
+        <v>1682.725100522032</v>
       </c>
       <c r="M20" t="n">
-        <v>2528.189928969823</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N20" t="n">
-        <v>3507.942201196469</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O20" t="n">
-        <v>4010.914672075806</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P20" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188667</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604876</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
         <v>3150.95552873011</v>
@@ -5826,16 +5826,16 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>772.0880968097393</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="C22" t="n">
-        <v>603.1519138818325</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="D22" t="n">
-        <v>603.1519138818325</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="E22" t="n">
-        <v>455.2388202994393</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="F22" t="n">
-        <v>308.348872801529</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G22" t="n">
-        <v>308.348872801529</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H22" t="n">
-        <v>162.1316860193867</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
         <v>140.68366689533</v>
@@ -5929,31 +5929,31 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104705</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>1898.073261679645</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.65758193153</v>
+        <v>1706.387377506472</v>
       </c>
       <c r="T22" t="n">
-        <v>1764.65758193153</v>
+        <v>1484.620762075998</v>
       </c>
       <c r="U22" t="n">
-        <v>1475.554715057174</v>
+        <v>1195.517895201641</v>
       </c>
       <c r="V22" t="n">
-        <v>1220.870226851287</v>
+        <v>940.8334069957543</v>
       </c>
       <c r="W22" t="n">
-        <v>1220.870226851287</v>
+        <v>651.4162369587937</v>
       </c>
       <c r="X22" t="n">
-        <v>992.8806759532695</v>
+        <v>423.4266860607763</v>
       </c>
       <c r="Y22" t="n">
-        <v>772.0880968097393</v>
+        <v>423.4266860607763</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551634</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074199</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972664</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M23" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N23" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750059</v>
+        <v>3517.878731871643</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107238</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.03465586292</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="24">
@@ -6063,16 +6063,16 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>171.0738540998329</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C25" t="n">
-        <v>171.0738540998329</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D25" t="n">
-        <v>171.0738540998329</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E25" t="n">
-        <v>171.0738540998329</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
-        <v>171.0738540998329</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
         <v>140.68366689533</v>
@@ -6169,28 +6169,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1674.827124689058</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T25" t="n">
-        <v>1453.060509258584</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U25" t="n">
-        <v>1163.957642384228</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V25" t="n">
-        <v>909.2731541783409</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W25" t="n">
-        <v>619.8559841413803</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X25" t="n">
-        <v>391.866433243363</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y25" t="n">
-        <v>171.0738540998329</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="26">
@@ -6215,7 +6215,7 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
@@ -6224,22 +6224,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K26" t="n">
-        <v>750.1800661608916</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L26" t="n">
-        <v>1614.698881814246</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M26" t="n">
-        <v>2593.249184644075</v>
+        <v>2949.638265046255</v>
       </c>
       <c r="N26" t="n">
         <v>3573.001456870722</v>
       </c>
       <c r="O26" t="n">
-        <v>4075.973927750058</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P26" t="n">
         <v>4470.748294107237</v>
@@ -6294,7 +6294,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H27" t="n">
         <v>114.5683260468565</v>
@@ -6303,28 +6303,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R27" t="n">
         <v>2593.958107142068</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C28" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D28" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E28" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F28" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
         <v>95.56103444839442</v>
@@ -6385,7 +6385,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L28" t="n">
         <v>661.2306482927024</v>
@@ -6397,37 +6397,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T28" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U28" t="n">
-        <v>1437.79612418831</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V28" t="n">
-        <v>1183.111635982423</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W28" t="n">
-        <v>893.6944659454626</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X28" t="n">
-        <v>665.7049150474453</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y28" t="n">
-        <v>444.9123359039152</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="29">
@@ -6452,7 +6452,7 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
@@ -6461,28 +6461,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K29" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L29" t="n">
-        <v>1971.087962216427</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M29" t="n">
-        <v>2504.619866888352</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N29" t="n">
-        <v>3051.398683947134</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O29" t="n">
-        <v>3554.371154826471</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P29" t="n">
-        <v>4267.726242273417</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
@@ -6516,37 +6516,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089888</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193585</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320239</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6555,25 +6555,25 @@
         <v>1715.000032008794</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6582,10 +6582,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6622,7 +6622,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L31" t="n">
         <v>661.2306482927024</v>
@@ -6634,22 +6634,22 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S31" t="n">
-        <v>1674.827124689058</v>
+        <v>1767.017141662901</v>
       </c>
       <c r="T31" t="n">
-        <v>1453.060509258584</v>
+        <v>1545.250526232427</v>
       </c>
       <c r="U31" t="n">
         <v>1256.147659358071</v>
@@ -6674,43 +6674,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.557933208926</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K32" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L32" t="n">
         <v>1557.603359811481</v>
       </c>
       <c r="M32" t="n">
-        <v>2091.135264483406</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N32" t="n">
-        <v>2637.914081542188</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O32" t="n">
         <v>3482.142110232732</v>
@@ -6725,25 +6725,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="33">
@@ -6753,37 +6753,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468566</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320239</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6819,10 +6819,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6862,7 +6862,7 @@
         <v>437.6816203490196</v>
       </c>
       <c r="L34" t="n">
-        <v>800.7468040499225</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M34" t="n">
         <v>1191.409234901878</v>
@@ -6877,7 +6877,7 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q34" t="n">
-        <v>2328.386548123957</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R34" t="n">
         <v>2286.005723829558</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.107542689501</v>
       </c>
       <c r="C35" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697163</v>
       </c>
       <c r="D35" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038486</v>
       </c>
       <c r="E35" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388315</v>
       </c>
       <c r="F35" t="n">
-        <v>698.9037015467784</v>
+        <v>698.9037015467806</v>
       </c>
       <c r="G35" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H35" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I35" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J35" t="n">
-        <v>437.4316968760676</v>
+        <v>393.2994530991713</v>
       </c>
       <c r="K35" t="n">
-        <v>771.2510705659141</v>
+        <v>727.1188267890177</v>
       </c>
       <c r="L35" t="n">
-        <v>1222.285283814323</v>
+        <v>1178.153040037426</v>
       </c>
       <c r="M35" t="n">
-        <v>1755.817188486248</v>
+        <v>1711.684944709351</v>
       </c>
       <c r="N35" t="n">
-        <v>2302.59600554503</v>
+        <v>2258.463761768133</v>
       </c>
       <c r="O35" t="n">
-        <v>2805.568476424367</v>
+        <v>2761.43623264747</v>
       </c>
       <c r="P35" t="n">
-        <v>3474.791320094414</v>
+        <v>3474.791320094415</v>
       </c>
       <c r="Q35" t="n">
-        <v>3933.269522603402</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R35" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S35" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T35" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U35" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V35" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W35" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X35" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833288</v>
       </c>
       <c r="Y35" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.25774980555</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I36" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J36" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K36" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L36" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M36" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N36" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O36" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P36" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q36" t="n">
-        <v>2579.688342997847</v>
+        <v>2579.688342997846</v>
       </c>
       <c r="R36" t="n">
         <v>2579.543989590362</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C37" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D37" t="n">
-        <v>549.9474938257042</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E37" t="n">
-        <v>449.4840331913844</v>
+        <v>449.4840331913843</v>
       </c>
       <c r="F37" t="n">
-        <v>350.0437186415473</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G37" t="n">
         <v>229.7905149643395</v>
@@ -7090,13 +7090,13 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I37" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J37" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K37" t="n">
-        <v>423.2675027973141</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L37" t="n">
         <v>786.332686498217</v>
@@ -7163,7 +7163,7 @@
         <v>698.9037015467788</v>
       </c>
       <c r="G38" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H38" t="n">
         <v>81.14691689668915</v>
@@ -7175,28 +7175,28 @@
         <v>437.4316968760676</v>
       </c>
       <c r="K38" t="n">
-        <v>771.2510705659141</v>
+        <v>771.251070565914</v>
       </c>
       <c r="L38" t="n">
         <v>1222.285283814323</v>
       </c>
       <c r="M38" t="n">
-        <v>1755.817188486248</v>
+        <v>1755.817188486247</v>
       </c>
       <c r="N38" t="n">
-        <v>2302.59600554503</v>
+        <v>2302.596005545029</v>
       </c>
       <c r="O38" t="n">
-        <v>2805.568476424367</v>
+        <v>2805.568476424366</v>
       </c>
       <c r="P38" t="n">
-        <v>3518.923563871313</v>
+        <v>3518.923563871311</v>
       </c>
       <c r="Q38" t="n">
-        <v>3977.401766380301</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R38" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S38" t="n">
         <v>3994.504809309626</v>
@@ -7208,7 +7208,7 @@
         <v>3629.895850863831</v>
       </c>
       <c r="V38" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W38" t="n">
         <v>3040.963574146293</v>
@@ -7251,13 +7251,13 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J39" t="n">
-        <v>174.8241863873066</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K39" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L39" t="n">
-        <v>779.7865456803191</v>
+        <v>779.7865456803195</v>
       </c>
       <c r="M39" t="n">
         <v>1227.062870902635</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502698007</v>
       </c>
       <c r="C40" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899671</v>
       </c>
       <c r="D40" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257047</v>
       </c>
       <c r="E40" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913849</v>
       </c>
       <c r="F40" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415478</v>
       </c>
       <c r="G40" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643401</v>
       </c>
       <c r="H40" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302712</v>
       </c>
       <c r="I40" t="n">
         <v>81.14691689668915</v>
@@ -7336,7 +7336,7 @@
         <v>423.2675027973144</v>
       </c>
       <c r="L40" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M40" t="n">
         <v>1176.995117350173</v>
@@ -7351,31 +7351,31 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q40" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R40" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S40" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T40" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U40" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V40" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W40" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X40" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y40" t="n">
-        <v>908.2998821519664</v>
+        <v>908.299882151967</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C41" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D41" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E41" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F41" t="n">
-        <v>698.9037015467796</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G41" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H41" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I41" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J41" t="n">
         <v>437.4316968760676</v>
       </c>
       <c r="K41" t="n">
-        <v>771.2510705659141</v>
+        <v>1092.155029011367</v>
       </c>
       <c r="L41" t="n">
-        <v>1222.285283814323</v>
+        <v>1543.189242259775</v>
       </c>
       <c r="M41" t="n">
-        <v>1755.817188486248</v>
+        <v>2076.7211469317</v>
       </c>
       <c r="N41" t="n">
-        <v>2302.59600554503</v>
+        <v>2623.499963990482</v>
       </c>
       <c r="O41" t="n">
-        <v>2971.628073400775</v>
+        <v>3126.472434869819</v>
       </c>
       <c r="P41" t="n">
-        <v>3684.983160847721</v>
+        <v>3521.246801226996</v>
       </c>
       <c r="Q41" t="n">
-        <v>3933.269522603403</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R41" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S41" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T41" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U41" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V41" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W41" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X41" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y41" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="42">
@@ -7485,16 +7485,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I42" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J42" t="n">
-        <v>174.8241863873066</v>
+        <v>174.8241863873071</v>
       </c>
       <c r="K42" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676542</v>
       </c>
       <c r="L42" t="n">
-        <v>779.7865456803191</v>
+        <v>779.7865456803195</v>
       </c>
       <c r="M42" t="n">
         <v>1227.062870902635</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502697999</v>
       </c>
       <c r="C43" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899663</v>
       </c>
       <c r="D43" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E43" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F43" t="n">
         <v>350.0437186415471</v>
@@ -7564,13 +7564,13 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I43" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J43" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K43" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L43" t="n">
         <v>786.3326864982171</v>
@@ -7585,19 +7585,19 @@
         <v>1910.743863481264</v>
       </c>
       <c r="P43" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q43" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R43" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S43" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T43" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U43" t="n">
         <v>1711.385138644068</v>
@@ -7612,7 +7612,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y43" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519662</v>
       </c>
     </row>
     <row r="44">
@@ -7637,7 +7637,7 @@
         <v>698.9037015467788</v>
       </c>
       <c r="G44" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H44" t="n">
         <v>81.14691689668915</v>
@@ -7646,31 +7646,31 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J44" t="n">
-        <v>393.2994530991692</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K44" t="n">
-        <v>727.1188267890157</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L44" t="n">
-        <v>1178.153040037424</v>
+        <v>1054.879634793969</v>
       </c>
       <c r="M44" t="n">
-        <v>1711.684944709349</v>
+        <v>2033.429937623798</v>
       </c>
       <c r="N44" t="n">
-        <v>2258.463761768131</v>
+        <v>2580.20875468258</v>
       </c>
       <c r="O44" t="n">
-        <v>2761.436232647468</v>
+        <v>3083.181225561917</v>
       </c>
       <c r="P44" t="n">
-        <v>3474.791320094414</v>
+        <v>3539.850575768667</v>
       </c>
       <c r="Q44" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R44" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S44" t="n">
         <v>3994.504809309626</v>
@@ -7682,7 +7682,7 @@
         <v>3629.895850863831</v>
       </c>
       <c r="V44" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W44" t="n">
         <v>3040.963574146293</v>
@@ -7725,28 +7725,28 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J45" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K45" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L45" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M45" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N45" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O45" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P45" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q45" t="n">
-        <v>2579.688342997847</v>
+        <v>2579.688342997846</v>
       </c>
       <c r="R45" t="n">
         <v>2579.543989590362</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502697998</v>
       </c>
       <c r="C46" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899661</v>
       </c>
       <c r="D46" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257038</v>
       </c>
       <c r="E46" t="n">
-        <v>449.4840331913842</v>
+        <v>449.484033191384</v>
       </c>
       <c r="F46" t="n">
-        <v>350.0437186415472</v>
+        <v>350.043718641547</v>
       </c>
       <c r="G46" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H46" t="n">
         <v>131.0229611302705</v>
@@ -7834,7 +7834,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T46" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U46" t="n">
         <v>1711.385138644068</v>
@@ -7849,7 +7849,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y46" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>61.64903792028434</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>276.5261752512607</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8307,10 +8307,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783518</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050814</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8687,31 +8687,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>189.7998007892651</v>
+        <v>231.5010718068651</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8924,28 +8924,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>67.53663776704343</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>344.7025836476847</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9161,31 +9161,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>219.3344627260164</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>258.6211785616939</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9401,19 +9401,19 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>67.53663776704343</v>
+        <v>201.9664098701124</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,31 +9635,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>133.2530576400264</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>285.7011105564207</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,10 +9872,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>133.2530576400255</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9884,7 +9884,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>77.35795430877249</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -9975,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10115,7 +10115,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10124,16 +10124,16 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>205.0727796301213</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10361,7 +10361,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>344.7025836476838</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>124.5185911550068</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10601,7 +10601,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>277.2206841544135</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10686,7 +10686,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10841,10 +10841,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>167.736966642837</v>
       </c>
       <c r="R38" t="n">
-        <v>21.13839585591369</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11072,13 +11072,13 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>167.7369666428365</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>165.3902622431549</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>124.5185911550046</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11312,13 +11312,13 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>62.52018570663859</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11397,7 +11397,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22556,16 +22556,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>340.3724270011376</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>165.3447838716</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>162.0217950910659</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22604,7 +22604,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>274.6250215660351</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-6.758680755765036e-13</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>119.2157786453991</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>119.7806538380683</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983243</v>
+        <v>96.35242040983624</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>272.9201814588502</v>
+        <v>66.88649074952781</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-1.70530256582424e-12</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C19" t="n">
-        <v>85.38897190385246</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23899,16 +23899,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,19 +24124,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>30.44747535455572</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>31.24465028923839</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,13 +24187,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24376,7 +24376,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>91.2681168041042</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,13 +24655,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>182.1679443159945</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>105.0742887270142</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,16 +24883,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>2.335964134057747</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>91.2681168041043</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>-3.126388037344441e-13</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>-7.034373084024992e-13</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>191972.4362473911</v>
+        <v>191972.4362473912</v>
       </c>
       <c r="C2" t="n">
         <v>205260.4424660708</v>
@@ -26320,13 +26320,13 @@
         <v>205260.4424660708</v>
       </c>
       <c r="E2" t="n">
-        <v>198540.8934434915</v>
+        <v>198540.8934434916</v>
       </c>
       <c r="F2" t="n">
-        <v>198540.8934434917</v>
+        <v>198540.8934434916</v>
       </c>
       <c r="G2" t="n">
-        <v>198540.8934434915</v>
+        <v>198540.8934434916</v>
       </c>
       <c r="H2" t="n">
         <v>198540.8934434915</v>
@@ -26335,22 +26335,22 @@
         <v>198540.8934434915</v>
       </c>
       <c r="J2" t="n">
-        <v>198540.8934434915</v>
+        <v>198540.8934434916</v>
       </c>
       <c r="K2" t="n">
         <v>198540.8934434916</v>
       </c>
       <c r="L2" t="n">
-        <v>205260.4424660705</v>
+        <v>205260.4424660706</v>
       </c>
       <c r="M2" t="n">
         <v>205260.4424660708</v>
       </c>
       <c r="N2" t="n">
-        <v>205260.4424660708</v>
+        <v>205260.4424660705</v>
       </c>
       <c r="O2" t="n">
-        <v>205260.4424660708</v>
+        <v>205260.4424660705</v>
       </c>
       <c r="P2" t="n">
         <v>205260.4424660708</v>
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>501884.681477193</v>
+        <v>501884.6814771944</v>
       </c>
       <c r="C3" t="n">
-        <v>83720.3126390437</v>
+        <v>83720.3126390423</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934068</v>
+        <v>727377.4139934066</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,10 +26387,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>156634.5614629959</v>
+        <v>156634.5614629961</v>
       </c>
       <c r="K3" t="n">
-        <v>19465.25531848969</v>
+        <v>19465.25531848939</v>
       </c>
       <c r="L3" t="n">
         <v>37580.10929487405</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>203100.1933923128</v>
+        <v>203100.1933923126</v>
       </c>
       <c r="C4" t="n">
         <v>209922.4154630333</v>
@@ -26424,40 +26424,40 @@
         <v>209922.4154630333</v>
       </c>
       <c r="E4" t="n">
-        <v>28561.83935289577</v>
+        <v>28561.83935289576</v>
       </c>
       <c r="F4" t="n">
         <v>28561.83935289576</v>
       </c>
       <c r="G4" t="n">
+        <v>28561.83935289575</v>
+      </c>
+      <c r="H4" t="n">
+        <v>28561.83935289575</v>
+      </c>
+      <c r="I4" t="n">
+        <v>28561.83935289574</v>
+      </c>
+      <c r="J4" t="n">
+        <v>28561.83935289579</v>
+      </c>
+      <c r="K4" t="n">
         <v>28561.83935289577</v>
       </c>
-      <c r="H4" t="n">
-        <v>28561.83935289569</v>
-      </c>
-      <c r="I4" t="n">
-        <v>28561.83935289577</v>
-      </c>
-      <c r="J4" t="n">
-        <v>28561.83935289576</v>
-      </c>
-      <c r="K4" t="n">
-        <v>28561.83935289576</v>
-      </c>
       <c r="L4" t="n">
-        <v>44019.0003311148</v>
+        <v>44019.00033111482</v>
       </c>
       <c r="M4" t="n">
-        <v>64344.18042540621</v>
+        <v>64344.18042540626</v>
       </c>
       <c r="N4" t="n">
-        <v>64344.18042540624</v>
+        <v>64344.18042540627</v>
       </c>
       <c r="O4" t="n">
-        <v>64344.18042540622</v>
+        <v>64344.18042540627</v>
       </c>
       <c r="P4" t="n">
-        <v>64344.18042540622</v>
+        <v>64344.18042540628</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>76841.33769237212</v>
+        <v>76841.33769237221</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26476,25 +26476,25 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
         <v>100332.6710141021</v>
@@ -26503,13 +26503,13 @@
         <v>89377.94167480612</v>
       </c>
       <c r="N5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="O5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="P5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-589853.7763144867</v>
+        <v>-589986.6563766747</v>
       </c>
       <c r="C6" t="n">
-        <v>-171241.3636994157</v>
+        <v>-171241.3636994143</v>
       </c>
       <c r="D6" t="n">
         <v>-87521.05106037197</v>
       </c>
       <c r="E6" t="n">
-        <v>-653781.8781565246</v>
+        <v>-653849.0736467501</v>
       </c>
       <c r="F6" t="n">
-        <v>73595.53583688222</v>
+        <v>73528.34034665641</v>
       </c>
       <c r="G6" t="n">
-        <v>73595.53583688207</v>
+        <v>73528.34034665622</v>
       </c>
       <c r="H6" t="n">
-        <v>73595.53583688219</v>
+        <v>73528.34034665624</v>
       </c>
       <c r="I6" t="n">
-        <v>73595.53583688207</v>
+        <v>73528.34034665633</v>
       </c>
       <c r="J6" t="n">
-        <v>-83039.02562611384</v>
+        <v>-83106.22111633974</v>
       </c>
       <c r="K6" t="n">
-        <v>54130.28051839249</v>
+        <v>54063.08502816698</v>
       </c>
       <c r="L6" t="n">
-        <v>23328.66182597951</v>
+        <v>23328.66182597958</v>
       </c>
       <c r="M6" t="n">
-        <v>-33203.29759364691</v>
+        <v>-33203.29759364696</v>
       </c>
       <c r="N6" t="n">
-        <v>51538.32036585844</v>
+        <v>51538.32036585816</v>
       </c>
       <c r="O6" t="n">
-        <v>51538.32036585841</v>
+        <v>51538.3203658581</v>
       </c>
       <c r="P6" t="n">
-        <v>51538.32036585844</v>
+        <v>51538.32036585845</v>
       </c>
     </row>
   </sheetData>
@@ -26719,13 +26719,13 @@
         <v>46.97513661859256</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>312.6374684322894</v>
+        <v>312.6374684322905</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>598.6552776405955</v>
+        <v>598.6552776405966</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26820,13 +26820,13 @@
         <v>1194.51293060493</v>
       </c>
       <c r="M4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="N4" t="n">
         <v>1014.336461208614</v>
       </c>
       <c r="O4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="P4" t="n">
         <v>1014.336461208614</v>
@@ -26957,22 +26957,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>312.6374684322894</v>
+        <v>312.6374684322905</v>
       </c>
       <c r="C3" t="n">
-        <v>65.10619578479725</v>
+        <v>65.10619578479614</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.0330363762114</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26981,7 +26981,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>598.6552776405955</v>
+        <v>598.6552776405966</v>
       </c>
       <c r="C4" t="n">
-        <v>75.63199511396013</v>
+        <v>75.63199511395896</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503749</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,10 +27033,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>598.6552776405953</v>
+        <v>598.6552776405966</v>
       </c>
       <c r="K4" t="n">
-        <v>75.63199511396013</v>
+        <v>75.63199511395896</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>598.6552776405955</v>
+        <v>598.6552776405966</v>
       </c>
       <c r="K4" t="n">
-        <v>75.63199511396013</v>
+        <v>75.63199511395896</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503749</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,22 +27379,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>73.67347647004857</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>326.6032504631754</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>180.3799638097597</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.5940585367451</v>
+        <v>195.6854456330074</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2451061843206</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27458,7 +27458,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>78.89572860400975</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27473,10 +27473,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>47.99833119476697</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>66.24376372694829</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27509,13 +27509,13 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>197.4542208317152</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27537,16 +27537,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.4272068744005</v>
@@ -27558,7 +27558,7 @@
         <v>138.4962987703072</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>53.50046549375601</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,22 +27579,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>38.95378551841869</v>
+        <v>38.95378551841853</v>
       </c>
       <c r="R4" t="n">
-        <v>151.9441304121514</v>
+        <v>151.9441304121513</v>
       </c>
       <c r="S4" t="n">
-        <v>214.1915812011575</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>166.9986662117218</v>
+        <v>120.7255934748212</v>
       </c>
       <c r="U4" t="n">
         <v>286.2882781300877</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>358.1317422438278</v>
+        <v>217.6651434347541</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>3.552713678800501e-13</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -27780,16 +27780,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
@@ -27822,19 +27822,19 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>98.43097677636428</v>
       </c>
       <c r="W7" t="n">
-        <v>242.6855674028634</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27856,7 +27856,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>193.633626035262</v>
+        <v>291.521247882388</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28014,7 +28014,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>125.6900249618412</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,16 +28053,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>132.9441743248468</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28071,13 +28071,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28141,7 +28141,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-1.074344903334076e-13</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28302,7 +28302,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>2.639429415770185e-12</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-1.016929192106336e-12</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28503,7 +28503,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>5.655920176650397e-12</v>
+        <v>1.885306725550132e-12</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28801,7 +28801,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -28858,7 +28858,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -29001,7 +29001,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -30004,7 +30004,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C38" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D38" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E38" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F38" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G38" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H38" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T38" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U38" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V38" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W38" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X38" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y38" t="n">
-        <v>46.97513661859273</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859273</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859216</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="W44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.256834043948901</v>
+        <v>1.256834043948905</v>
       </c>
       <c r="H2" t="n">
-        <v>12.87155165259169</v>
+        <v>12.87155165259173</v>
       </c>
       <c r="I2" t="n">
-        <v>48.45409447934006</v>
+        <v>48.45409447934022</v>
       </c>
       <c r="J2" t="n">
-        <v>106.6722184376081</v>
+        <v>106.6722184376085</v>
       </c>
       <c r="K2" t="n">
-        <v>159.8740035179651</v>
+        <v>159.8740035179657</v>
       </c>
       <c r="L2" t="n">
-        <v>198.3378383904664</v>
+        <v>198.3378383904671</v>
       </c>
       <c r="M2" t="n">
-        <v>220.6890608195426</v>
+        <v>220.6890608195434</v>
       </c>
       <c r="N2" t="n">
-        <v>224.2600405469125</v>
+        <v>224.2600405469132</v>
       </c>
       <c r="O2" t="n">
-        <v>211.7623970223956</v>
+        <v>211.7623970223963</v>
       </c>
       <c r="P2" t="n">
-        <v>180.7343065624071</v>
+        <v>180.7343065624077</v>
       </c>
       <c r="Q2" t="n">
-        <v>135.723937363487</v>
+        <v>135.7239373634875</v>
       </c>
       <c r="R2" t="n">
-        <v>78.94960151320522</v>
+        <v>78.94960151320549</v>
       </c>
       <c r="S2" t="n">
-        <v>28.64010577648561</v>
+        <v>28.64010577648571</v>
       </c>
       <c r="T2" t="n">
-        <v>5.501791027386317</v>
+        <v>5.501791027386337</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1005467235159121</v>
+        <v>0.1005467235159124</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6724654981373772</v>
+        <v>0.6724654981373795</v>
       </c>
       <c r="H3" t="n">
-        <v>6.494600995168881</v>
+        <v>6.494600995168903</v>
       </c>
       <c r="I3" t="n">
-        <v>23.15286912446672</v>
+        <v>23.1528691244668</v>
       </c>
       <c r="J3" t="n">
-        <v>63.53324252358441</v>
+        <v>63.53324252358463</v>
       </c>
       <c r="K3" t="n">
-        <v>108.5884308987887</v>
+        <v>108.588430898789</v>
       </c>
       <c r="L3" t="n">
-        <v>146.0105459881178</v>
+        <v>146.0105459881183</v>
       </c>
       <c r="M3" t="n">
-        <v>170.3874202955977</v>
+        <v>170.3874202955983</v>
       </c>
       <c r="N3" t="n">
-        <v>174.8970683072295</v>
+        <v>174.8970683072301</v>
       </c>
       <c r="O3" t="n">
-        <v>159.9966485853434</v>
+        <v>159.996648585344</v>
       </c>
       <c r="P3" t="n">
-        <v>128.4114160434436</v>
+        <v>128.411416043444</v>
       </c>
       <c r="Q3" t="n">
-        <v>85.8396309552203</v>
+        <v>85.83963095522058</v>
       </c>
       <c r="R3" t="n">
-        <v>41.7518490861084</v>
+        <v>41.75184908610854</v>
       </c>
       <c r="S3" t="n">
-        <v>12.49075168689382</v>
+        <v>12.49075168689386</v>
       </c>
       <c r="T3" t="n">
-        <v>2.710507863106357</v>
+        <v>2.710507863106366</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04424115119324851</v>
+        <v>0.04424115119324867</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5637724840582267</v>
+        <v>0.5637724840582287</v>
       </c>
       <c r="H4" t="n">
-        <v>5.012449903717692</v>
+        <v>5.012449903717709</v>
       </c>
       <c r="I4" t="n">
-        <v>16.95417615695104</v>
+        <v>16.9541761569511</v>
       </c>
       <c r="J4" t="n">
-        <v>39.85871462291662</v>
+        <v>39.85871462291676</v>
       </c>
       <c r="K4" t="n">
-        <v>65.50011223876487</v>
+        <v>65.5001122387651</v>
       </c>
       <c r="L4" t="n">
-        <v>83.81759276625674</v>
+        <v>83.81759276625702</v>
       </c>
       <c r="M4" t="n">
-        <v>88.37389947832729</v>
+        <v>88.37389947832759</v>
       </c>
       <c r="N4" t="n">
-        <v>86.27256567411033</v>
+        <v>86.27256567411062</v>
       </c>
       <c r="O4" t="n">
-        <v>79.6866780194301</v>
+        <v>79.68667801943039</v>
       </c>
       <c r="P4" t="n">
-        <v>68.18571934464222</v>
+        <v>68.18571934464246</v>
       </c>
       <c r="Q4" t="n">
-        <v>47.20825773327569</v>
+        <v>47.20825773327586</v>
       </c>
       <c r="R4" t="n">
-        <v>25.34926096501808</v>
+        <v>25.34926096501816</v>
       </c>
       <c r="S4" t="n">
-        <v>9.825016835814729</v>
+        <v>9.825016835814763</v>
       </c>
       <c r="T4" t="n">
-        <v>2.408846068248786</v>
+        <v>2.408846068248795</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03075122640317604</v>
+        <v>0.03075122640317614</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026444</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32321,7 +32321,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
         <v>609.6478166837925</v>
@@ -32549,7 +32549,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
@@ -32561,7 +32561,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
         <v>557.708647897025</v>
@@ -32786,7 +32786,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
@@ -32807,7 +32807,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33257,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970255</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33345,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33363,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33731,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33968,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138802</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34056,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34074,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026445</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34442,40 +34442,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34530,16 +34530,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34548,16 +34548,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>94.72292908299562</v>
+        <v>94.72292908299599</v>
       </c>
       <c r="K2" t="n">
-        <v>263.9295650441493</v>
+        <v>263.9295650441499</v>
       </c>
       <c r="L2" t="n">
-        <v>380.2326379709295</v>
+        <v>380.2326379709302</v>
       </c>
       <c r="M2" t="n">
-        <v>439.8563610851024</v>
+        <v>439.8563610851031</v>
       </c>
       <c r="N2" t="n">
-        <v>432.1939013623057</v>
+        <v>432.1939013623065</v>
       </c>
       <c r="O2" t="n">
-        <v>362.4643668634542</v>
+        <v>362.4643668634549</v>
       </c>
       <c r="P2" t="n">
-        <v>271.3000189786202</v>
+        <v>271.3000189786208</v>
       </c>
       <c r="Q2" t="n">
-        <v>125.7332381489422</v>
+        <v>125.7332381489427</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.78665119732655</v>
+        <v>62.78665119732677</v>
       </c>
       <c r="K3" t="n">
-        <v>32.39602984471401</v>
+        <v>235.2122289370087</v>
       </c>
       <c r="L3" t="n">
-        <v>378.2965115117028</v>
+        <v>378.2965115117033</v>
       </c>
       <c r="M3" t="n">
-        <v>493.9584501235793</v>
+        <v>493.9584501235798</v>
       </c>
       <c r="N3" t="n">
-        <v>522.8977305674498</v>
+        <v>320.0815314751575</v>
       </c>
       <c r="O3" t="n">
-        <v>411.2627234176285</v>
+        <v>411.262723417629</v>
       </c>
       <c r="P3" t="n">
-        <v>312.8997772690504</v>
+        <v>312.8997772690509</v>
       </c>
       <c r="Q3" t="n">
-        <v>155.9351446050479</v>
+        <v>155.9351446050482</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>43.23062041288202</v>
+        <v>43.23062041288225</v>
       </c>
       <c r="L4" t="n">
-        <v>111.4076180265729</v>
+        <v>111.4076180265732</v>
       </c>
       <c r="M4" t="n">
-        <v>127.9577764401679</v>
+        <v>127.9577764401682</v>
       </c>
       <c r="N4" t="n">
-        <v>130.4047380533389</v>
+        <v>130.4047380533392</v>
       </c>
       <c r="O4" t="n">
-        <v>104.2718059334698</v>
+        <v>104.2718059334701</v>
       </c>
       <c r="P4" t="n">
-        <v>65.46427860953571</v>
+        <v>65.46427860953595</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35027,10 +35027,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35249,13 +35249,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730079</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>526.9910873446656</v>
+        <v>568.6923583622655</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509645</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35580,13 +35580,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>404.7279243224439</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427826</v>
+        <v>800.2926980400166</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R14" t="n">
         <v>125.3296184152072</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597767</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35817,13 +35817,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>556.5257492814169</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>766.674179449913</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35969,7 +35969,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
         <v>478.3061046004592</v>
@@ -36121,19 +36121,19 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>404.7279243224439</v>
+        <v>539.1576964255129</v>
       </c>
       <c r="L20" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
         <v>398.7619862193719</v>
@@ -36142,7 +36142,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597715</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
@@ -36209,7 +36209,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
         <v>415.1124034525806</v>
@@ -36297,7 +36297,7 @@
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789498</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>641.3060585282456</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>684.4630967757926</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597715</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
@@ -36455,7 +36455,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>470.444344195426</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>629.6597897216838</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36765,13 +36765,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,28 +36832,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q29" t="n">
-        <v>455.8670844338408</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525811</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37002,13 +37002,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,25 +37069,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
-        <v>852.7555845359029</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R32" t="n">
         <v>125.3296184152072</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,25 +37224,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O34" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P34" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q34" t="n">
         <v>125.3693751564862</v>
@@ -37303,28 +37303,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>315.3055921237194</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P35" t="n">
-        <v>675.9826703737854</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R35" t="n">
         <v>125.3296184152072</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,16 +37461,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K37" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M37" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N37" t="n">
         <v>391.8320827861326</v>
@@ -37479,7 +37479,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P37" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q37" t="n">
         <v>125.3693751564862</v>
@@ -37543,28 +37543,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>418.5312714465564</v>
       </c>
       <c r="R38" t="n">
-        <v>80.75159439813847</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597723</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.402182134006</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K40" t="n">
         <v>253.0227961629121</v>
@@ -37710,7 +37710,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O40" t="n">
         <v>349.3282668412323</v>
@@ -37780,25 +37780,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>675.7899675310556</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>416.1845670468743</v>
       </c>
       <c r="R41" t="n">
         <v>125.3296184152072</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359772</v>
+        <v>94.62350453597776</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37947,13 +37947,13 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O43" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P43" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637025</v>
       </c>
       <c r="Q43" t="n">
         <v>125.3693751564862</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>315.3055921237172</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>461.2821719260102</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38184,7 +38184,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O46" t="n">
         <v>349.3282668412323</v>
